--- a/wwwroot/dummy/Student - iSmile.xlsx
+++ b/wwwroot/dummy/Student - iSmile.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telkomuniversityofficial-my.sharepoint.com/personal/ismilelab_365_telkomuniversity_ac_id/Documents/I-SMILE#8/PRAKTIKUM/SHIFT NGAJAR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Whitefall\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C534ED66A9285308B4F20DB4C45D60265A933F7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC77A1C-AC4E-4F8B-933A-D256F2FF1865}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465C5D3F-6B57-42C3-8D18-FBAEC1D9D51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Praktikan" sheetId="1" r:id="rId1"/>
+    <sheet name="Asisten" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="576">
   <si>
     <t>Nim</t>
   </si>
@@ -1073,13 +1087,688 @@
   </si>
   <si>
     <t>RADITYA GHIFARI ALJABBAR</t>
+  </si>
+  <si>
+    <t>110321003212</t>
+  </si>
+  <si>
+    <t>110321005212</t>
+  </si>
+  <si>
+    <t>110321010112</t>
+  </si>
+  <si>
+    <t>110321015812</t>
+  </si>
+  <si>
+    <t>110321017212</t>
+  </si>
+  <si>
+    <t>110321017412</t>
+  </si>
+  <si>
+    <t>110321018512</t>
+  </si>
+  <si>
+    <t>110321019212</t>
+  </si>
+  <si>
+    <t>110321022212</t>
+  </si>
+  <si>
+    <t>110321300212</t>
+  </si>
+  <si>
+    <t>110321307212</t>
+  </si>
+  <si>
+    <t>110321308012</t>
+  </si>
+  <si>
+    <t>110321308812</t>
+  </si>
+  <si>
+    <t>110321309012</t>
+  </si>
+  <si>
+    <t>110321315212</t>
+  </si>
+  <si>
+    <t>110321316412</t>
+  </si>
+  <si>
+    <t>110320014813</t>
+  </si>
+  <si>
+    <t>110320215313</t>
+  </si>
+  <si>
+    <t>110320216113</t>
+  </si>
+  <si>
+    <t>110320409013</t>
+  </si>
+  <si>
+    <t>110321005613</t>
+  </si>
+  <si>
+    <t>110321021613</t>
+  </si>
+  <si>
+    <t>110321021813</t>
+  </si>
+  <si>
+    <t>110321023113</t>
+  </si>
+  <si>
+    <t>110321301913</t>
+  </si>
+  <si>
+    <t>110321302613</t>
+  </si>
+  <si>
+    <t>110321304413</t>
+  </si>
+  <si>
+    <t>110321305113</t>
+  </si>
+  <si>
+    <t>110321307313</t>
+  </si>
+  <si>
+    <t>110321314913</t>
+  </si>
+  <si>
+    <t>110321319513</t>
+  </si>
+  <si>
+    <t>110321322413</t>
+  </si>
+  <si>
+    <t>110320405322</t>
+  </si>
+  <si>
+    <t>110321003122</t>
+  </si>
+  <si>
+    <t>110321003822</t>
+  </si>
+  <si>
+    <t>110321009422</t>
+  </si>
+  <si>
+    <t>110321012522</t>
+  </si>
+  <si>
+    <t>110321014322</t>
+  </si>
+  <si>
+    <t>110321021022</t>
+  </si>
+  <si>
+    <t>110321301122</t>
+  </si>
+  <si>
+    <t>110321302322</t>
+  </si>
+  <si>
+    <t>110321304822</t>
+  </si>
+  <si>
+    <t>110321307022</t>
+  </si>
+  <si>
+    <t>110321307722</t>
+  </si>
+  <si>
+    <t>110321308422</t>
+  </si>
+  <si>
+    <t>110321311022</t>
+  </si>
+  <si>
+    <t>110321311922</t>
+  </si>
+  <si>
+    <t>110321319622</t>
+  </si>
+  <si>
+    <t>110319003323</t>
+  </si>
+  <si>
+    <t>110320202023</t>
+  </si>
+  <si>
+    <t>110320211723</t>
+  </si>
+  <si>
+    <t>110321010323</t>
+  </si>
+  <si>
+    <t>110321019323</t>
+  </si>
+  <si>
+    <t>110321020223</t>
+  </si>
+  <si>
+    <t>110321020823</t>
+  </si>
+  <si>
+    <t>110321022023</t>
+  </si>
+  <si>
+    <t>110321316623</t>
+  </si>
+  <si>
+    <t>110321317823</t>
+  </si>
+  <si>
+    <t>110322817423</t>
+  </si>
+  <si>
+    <t>110322818123</t>
+  </si>
+  <si>
+    <t>110321000924</t>
+  </si>
+  <si>
+    <t>110321014624</t>
+  </si>
+  <si>
+    <t>110321018724</t>
+  </si>
+  <si>
+    <t>110321020124</t>
+  </si>
+  <si>
+    <t>110321302124</t>
+  </si>
+  <si>
+    <t>110321302524</t>
+  </si>
+  <si>
+    <t>110321302824</t>
+  </si>
+  <si>
+    <t>110321303624</t>
+  </si>
+  <si>
+    <t>110321304324</t>
+  </si>
+  <si>
+    <t>110321305924</t>
+  </si>
+  <si>
+    <t>110321306824</t>
+  </si>
+  <si>
+    <t>110321310924</t>
+  </si>
+  <si>
+    <t>110321316524</t>
+  </si>
+  <si>
+    <t>110322814524</t>
+  </si>
+  <si>
+    <t>110322822424</t>
+  </si>
+  <si>
+    <t>110322824024</t>
+  </si>
+  <si>
+    <t>110317418533</t>
+  </si>
+  <si>
+    <t>110320322133</t>
+  </si>
+  <si>
+    <t>110321003533</t>
+  </si>
+  <si>
+    <t>110321004233</t>
+  </si>
+  <si>
+    <t>110321005333</t>
+  </si>
+  <si>
+    <t>110321005733</t>
+  </si>
+  <si>
+    <t>110321017733</t>
+  </si>
+  <si>
+    <t>110321018433</t>
+  </si>
+  <si>
+    <t>110321300733</t>
+  </si>
+  <si>
+    <t>110321301333</t>
+  </si>
+  <si>
+    <t>110321303433</t>
+  </si>
+  <si>
+    <t>110321311833</t>
+  </si>
+  <si>
+    <t>110321312733</t>
+  </si>
+  <si>
+    <t>110321313033</t>
+  </si>
+  <si>
+    <t>110321314833</t>
+  </si>
+  <si>
+    <t>110321316033</t>
+  </si>
+  <si>
+    <t>110321000134</t>
+  </si>
+  <si>
+    <t>110321003734</t>
+  </si>
+  <si>
+    <t>110321010234</t>
+  </si>
+  <si>
+    <t>110321015434</t>
+  </si>
+  <si>
+    <t>110321020734</t>
+  </si>
+  <si>
+    <t>110321300334</t>
+  </si>
+  <si>
+    <t>110321300534</t>
+  </si>
+  <si>
+    <t>110321301234</t>
+  </si>
+  <si>
+    <t>110321303934</t>
+  </si>
+  <si>
+    <t>110321304034</t>
+  </si>
+  <si>
+    <t>110321304534</t>
+  </si>
+  <si>
+    <t>110321305534</t>
+  </si>
+  <si>
+    <t>110321308534</t>
+  </si>
+  <si>
+    <t>110321311734</t>
+  </si>
+  <si>
+    <t>110321312034</t>
+  </si>
+  <si>
+    <t>110321317534</t>
+  </si>
+  <si>
+    <t>110320409942</t>
+  </si>
+  <si>
+    <t>110320419342</t>
+  </si>
+  <si>
+    <t>110321000842</t>
+  </si>
+  <si>
+    <t>110321012842</t>
+  </si>
+  <si>
+    <t>110321022642</t>
+  </si>
+  <si>
+    <t>110321023842</t>
+  </si>
+  <si>
+    <t>110321305442</t>
+  </si>
+  <si>
+    <t>110321312242</t>
+  </si>
+  <si>
+    <t>110322818242</t>
+  </si>
+  <si>
+    <t>110322823342</t>
+  </si>
+  <si>
+    <t>110322823842</t>
+  </si>
+  <si>
+    <t>110322823942</t>
+  </si>
+  <si>
+    <t>110322824142</t>
+  </si>
+  <si>
+    <t>110322824242</t>
+  </si>
+  <si>
+    <t>110322824342</t>
+  </si>
+  <si>
+    <t>110322824442</t>
+  </si>
+  <si>
+    <t>110320212844</t>
+  </si>
+  <si>
+    <t>110320221544</t>
+  </si>
+  <si>
+    <t>110320321944</t>
+  </si>
+  <si>
+    <t>110320403344</t>
+  </si>
+  <si>
+    <t>110321001844</t>
+  </si>
+  <si>
+    <t>110321002444</t>
+  </si>
+  <si>
+    <t>110321011344</t>
+  </si>
+  <si>
+    <t>110321015644</t>
+  </si>
+  <si>
+    <t>110321021144</t>
+  </si>
+  <si>
+    <t>110321023044</t>
+  </si>
+  <si>
+    <t>110321023644</t>
+  </si>
+  <si>
+    <t>110321306544</t>
+  </si>
+  <si>
+    <t>110321307844</t>
+  </si>
+  <si>
+    <t>110321310744</t>
+  </si>
+  <si>
+    <t>110321314444</t>
+  </si>
+  <si>
+    <t>110321315044</t>
+  </si>
+  <si>
+    <t>110321001753</t>
+  </si>
+  <si>
+    <t>110321006453</t>
+  </si>
+  <si>
+    <t>110321013253</t>
+  </si>
+  <si>
+    <t>110321016153</t>
+  </si>
+  <si>
+    <t>110321018953</t>
+  </si>
+  <si>
+    <t>110321020553</t>
+  </si>
+  <si>
+    <t>110321020653</t>
+  </si>
+  <si>
+    <t>110321023553</t>
+  </si>
+  <si>
+    <t>110321303353</t>
+  </si>
+  <si>
+    <t>110321309153</t>
+  </si>
+  <si>
+    <t>110321309853</t>
+  </si>
+  <si>
+    <t>110321311453</t>
+  </si>
+  <si>
+    <t>110321313153</t>
+  </si>
+  <si>
+    <t>110321313653</t>
+  </si>
+  <si>
+    <t>110321315553</t>
+  </si>
+  <si>
+    <t>110321316253</t>
+  </si>
+  <si>
+    <t>110320000854</t>
+  </si>
+  <si>
+    <t>110320124754</t>
+  </si>
+  <si>
+    <t>110320204754</t>
+  </si>
+  <si>
+    <t>110320213354</t>
+  </si>
+  <si>
+    <t>110320216254</t>
+  </si>
+  <si>
+    <t>110320219754</t>
+  </si>
+  <si>
+    <t>110320415854</t>
+  </si>
+  <si>
+    <t>110320416754</t>
+  </si>
+  <si>
+    <t>110320417454</t>
+  </si>
+  <si>
+    <t>110320418554</t>
+  </si>
+  <si>
+    <t>110320420954</t>
+  </si>
+  <si>
+    <t>110321005054</t>
+  </si>
+  <si>
+    <t>110321006354</t>
+  </si>
+  <si>
+    <t>110321006654</t>
+  </si>
+  <si>
+    <t>110321009754</t>
+  </si>
+  <si>
+    <t>110321309254</t>
+  </si>
+  <si>
+    <t>Kode Asisten</t>
+  </si>
+  <si>
+    <t>PUN</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>PIA</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>HEH</t>
+  </si>
+  <si>
+    <t>OWO</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>MAZ</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>GTR</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>NIM</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>NIM Asli</t>
+  </si>
+  <si>
+    <t>Harvan Nurluthfi Irawan</t>
+  </si>
+  <si>
+    <t>Galih Karya Gemilang</t>
+  </si>
+  <si>
+    <t>Alifia Mutiara Rahma</t>
+  </si>
+  <si>
+    <t>Rizky Ramadhani Syam</t>
+  </si>
+  <si>
+    <t>Muhammad Haekal Panderadja Pasi</t>
+  </si>
+  <si>
+    <t>Akbar Prastowo</t>
+  </si>
+  <si>
+    <t>Samuel Robert Romulus Sidabalok</t>
+  </si>
+  <si>
+    <t>Lazzuardi Sholehuddin Nursuhud</t>
+  </si>
+  <si>
+    <t>Muhammad Hilmy Aziz</t>
+  </si>
+  <si>
+    <t>Muhammad Tharreq An Nahl</t>
+  </si>
+  <si>
+    <t>Harits Maulana Muzakki</t>
+  </si>
+  <si>
+    <t>Giovanni Nathaniel</t>
+  </si>
+  <si>
+    <t>LAZ</t>
+  </si>
+  <si>
+    <t>AMY</t>
+  </si>
+  <si>
+    <t>0000000001</t>
+  </si>
+  <si>
+    <t>0000000002</t>
+  </si>
+  <si>
+    <t>0000000003</t>
+  </si>
+  <si>
+    <t>0000000004</t>
+  </si>
+  <si>
+    <t>0000000005</t>
+  </si>
+  <si>
+    <t>0000000006</t>
+  </si>
+  <si>
+    <t>0000000007</t>
+  </si>
+  <si>
+    <t>0000000008</t>
+  </si>
+  <si>
+    <t>0000000009</t>
+  </si>
+  <si>
+    <t>0000000010</t>
+  </si>
+  <si>
+    <t>0000000011</t>
+  </si>
+  <si>
+    <t>pun0</t>
+  </si>
+  <si>
+    <t>gal1</t>
+  </si>
+  <si>
+    <t>pia2</t>
+  </si>
+  <si>
+    <t>ket3</t>
+  </si>
+  <si>
+    <t>heh4</t>
+  </si>
+  <si>
+    <t>owo5</t>
+  </si>
+  <si>
+    <t>sam6</t>
+  </si>
+  <si>
+    <t>laz7</t>
+  </si>
+  <si>
+    <t>amy8</t>
+  </si>
+  <si>
+    <t>req9</t>
+  </si>
+  <si>
+    <t>gtr10</t>
+  </si>
+  <si>
+    <t>nat11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1091,8 +1780,19 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,8 +1823,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1208,11 +1914,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1252,6 +1991,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1472,17 +2236,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.7265625" customWidth="1"/>
+    <col min="1" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="26" width="12.453125" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="9" max="25" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1516,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -1539,13 +2305,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
@@ -1562,13 +2328,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -1585,13 +2351,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
@@ -1608,13 +2374,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" s="10">
         <v>2</v>
@@ -1631,13 +2397,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
         <v>2</v>
@@ -1654,13 +2420,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
         <v>2</v>
@@ -1677,13 +2443,13 @@
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
@@ -1700,13 +2466,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -1723,13 +2489,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
         <v>2</v>
@@ -1746,13 +2512,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -1769,13 +2535,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <v>2</v>
@@ -1792,18 +2558,18 @@
         <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="10">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2</v>
+      </c>
+      <c r="G14" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1815,18 +2581,18 @@
         <v>33</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="10">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="G15" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1838,18 +2604,18 @@
         <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="10">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1861,18 +2627,18 @@
         <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="10">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+      <c r="G17" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1884,13 +2650,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
@@ -1907,13 +2673,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19" s="7">
         <v>3</v>
@@ -1930,13 +2696,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
         <v>3</v>
@@ -1953,13 +2719,13 @@
         <v>45</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
         <v>3</v>
@@ -1976,13 +2742,13 @@
         <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>371</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F22" s="10">
         <v>3</v>
@@ -1999,13 +2765,13 @@
         <v>49</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10">
         <v>3</v>
@@ -2022,13 +2788,13 @@
         <v>51</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>373</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F24" s="10">
         <v>3</v>
@@ -2045,13 +2811,13 @@
         <v>53</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F25" s="10">
         <v>3</v>
@@ -2068,13 +2834,13 @@
         <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>375</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="7">
         <v>3</v>
@@ -2091,13 +2857,13 @@
         <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F27" s="7">
         <v>3</v>
@@ -2114,13 +2880,13 @@
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7">
         <v>3</v>
@@ -2137,13 +2903,13 @@
         <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7">
         <v>3</v>
@@ -2160,13 +2926,13 @@
         <v>63</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>63</v>
+        <v>379</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F30" s="10">
         <v>3</v>
@@ -2183,13 +2949,13 @@
         <v>65</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10">
         <v>3</v>
@@ -2206,13 +2972,13 @@
         <v>67</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F32" s="10">
         <v>3</v>
@@ -2229,13 +2995,13 @@
         <v>69</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F33" s="10">
         <v>3</v>
@@ -2252,13 +3018,13 @@
         <v>71</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34" s="7">
         <v>2</v>
@@ -2275,13 +3041,13 @@
         <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>73</v>
+        <v>384</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E35" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F35" s="7">
         <v>2</v>
@@ -2298,13 +3064,13 @@
         <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>75</v>
+        <v>385</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E36" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F36" s="7">
         <v>2</v>
@@ -2321,13 +3087,13 @@
         <v>77</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
@@ -2344,13 +3110,13 @@
         <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F38" s="10">
         <v>2</v>
@@ -2367,13 +3133,13 @@
         <v>81</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F39" s="10">
         <v>2</v>
@@ -2390,13 +3156,13 @@
         <v>83</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F40" s="10">
         <v>2</v>
@@ -2413,13 +3179,13 @@
         <v>85</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F41" s="10">
         <v>2</v>
@@ -2436,13 +3202,13 @@
         <v>87</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>391</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E42" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F42" s="7">
         <v>2</v>
@@ -2459,13 +3225,13 @@
         <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E43" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F43" s="7">
         <v>2</v>
@@ -2482,13 +3248,13 @@
         <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F44" s="7">
         <v>2</v>
@@ -2505,13 +3271,13 @@
         <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>394</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E45" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F45" s="7">
         <v>2</v>
@@ -2528,13 +3294,13 @@
         <v>95</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
+        <v>395</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F46" s="10">
         <v>2</v>
@@ -2551,13 +3317,13 @@
         <v>97</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>97</v>
+        <v>396</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F47" s="10">
         <v>2</v>
@@ -2574,13 +3340,13 @@
         <v>99</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>99</v>
+        <v>397</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E48" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F48" s="10">
         <v>2</v>
@@ -2597,13 +3363,13 @@
         <v>101</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>101</v>
+        <v>398</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F49" s="10">
         <v>2</v>
@@ -2620,13 +3386,13 @@
         <v>103</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F50" s="7">
         <v>3</v>
@@ -2643,13 +3409,13 @@
         <v>105</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E51" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F51" s="7">
         <v>3</v>
@@ -2666,13 +3432,13 @@
         <v>107</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E52" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F52" s="7">
         <v>3</v>
@@ -2689,13 +3455,13 @@
         <v>109</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>109</v>
+        <v>402</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E53" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F53" s="10">
         <v>3</v>
@@ -2712,13 +3478,13 @@
         <v>111</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>111</v>
+        <v>403</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E54" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F54" s="10">
         <v>3</v>
@@ -2735,13 +3501,13 @@
         <v>113</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E55" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F55" s="10">
         <v>3</v>
@@ -2758,13 +3524,13 @@
         <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E56" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F56" s="7">
         <v>3</v>
@@ -2781,13 +3547,13 @@
         <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>117</v>
+        <v>406</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E57" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F57" s="7">
         <v>3</v>
@@ -2804,13 +3570,13 @@
         <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F58" s="7">
         <v>3</v>
@@ -2827,13 +3593,13 @@
         <v>121</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>121</v>
+        <v>408</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E59" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59" s="13">
         <v>3</v>
@@ -2850,13 +3616,13 @@
         <v>123</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F60" s="13">
         <v>3</v>
@@ -2873,13 +3639,13 @@
         <v>125</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>125</v>
+        <v>410</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>126</v>
       </c>
       <c r="E61" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F61" s="13">
         <v>3</v>
@@ -2896,13 +3662,13 @@
         <v>127</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>127</v>
+        <v>411</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>128</v>
       </c>
       <c r="E62" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F62" s="16">
         <v>4</v>
@@ -2919,13 +3685,13 @@
         <v>129</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>130</v>
       </c>
       <c r="E63" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F63" s="16">
         <v>4</v>
@@ -2942,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E64" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F64" s="16">
         <v>4</v>
@@ -2965,13 +3731,13 @@
         <v>133</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>133</v>
+        <v>414</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>134</v>
       </c>
       <c r="E65" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F65" s="16">
         <v>4</v>
@@ -2988,13 +3754,13 @@
         <v>135</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>136</v>
       </c>
       <c r="E66" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F66" s="13">
         <v>4</v>
@@ -3011,13 +3777,13 @@
         <v>137</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>137</v>
+        <v>416</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E67" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F67" s="13">
         <v>4</v>
@@ -3034,13 +3800,13 @@
         <v>139</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E68" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F68" s="13">
         <v>4</v>
@@ -3057,13 +3823,13 @@
         <v>141</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E69" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F69" s="13">
         <v>4</v>
@@ -3080,13 +3846,13 @@
         <v>143</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>143</v>
+        <v>419</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E70" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F70" s="16">
         <v>4</v>
@@ -3103,13 +3869,13 @@
         <v>145</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>145</v>
+        <v>420</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>146</v>
       </c>
       <c r="E71" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F71" s="16">
         <v>4</v>
@@ -3126,13 +3892,13 @@
         <v>147</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>147</v>
+        <v>421</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>148</v>
       </c>
       <c r="E72" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F72" s="16">
         <v>4</v>
@@ -3149,13 +3915,13 @@
         <v>149</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>149</v>
+        <v>422</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>150</v>
       </c>
       <c r="E73" s="16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F73" s="16">
         <v>4</v>
@@ -3172,13 +3938,13 @@
         <v>151</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>151</v>
+        <v>423</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>152</v>
       </c>
       <c r="E74" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F74" s="13">
         <v>4</v>
@@ -3195,13 +3961,13 @@
         <v>153</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>153</v>
+        <v>424</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E75" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F75" s="13">
         <v>4</v>
@@ -3218,13 +3984,13 @@
         <v>155</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>155</v>
+        <v>425</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>156</v>
       </c>
       <c r="E76" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F76" s="13">
         <v>4</v>
@@ -3241,13 +4007,13 @@
         <v>157</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E77" s="13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F77" s="13">
         <v>4</v>
@@ -3264,13 +4030,13 @@
         <v>159</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>159</v>
+        <v>427</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>160</v>
       </c>
       <c r="E78" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F78" s="16">
         <v>3</v>
@@ -3287,13 +4053,13 @@
         <v>161</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>161</v>
+        <v>428</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>162</v>
       </c>
       <c r="E79" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F79" s="16">
         <v>3</v>
@@ -3310,13 +4076,13 @@
         <v>163</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>164</v>
       </c>
       <c r="E80" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F80" s="16">
         <v>3</v>
@@ -3333,13 +4099,13 @@
         <v>165</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>165</v>
+        <v>430</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>166</v>
       </c>
       <c r="E81" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F81" s="16">
         <v>3</v>
@@ -3356,13 +4122,13 @@
         <v>167</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>167</v>
+        <v>431</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E82" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F82" s="10">
         <v>3</v>
@@ -3379,13 +4145,13 @@
         <v>169</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E83" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F83" s="10">
         <v>3</v>
@@ -3402,13 +4168,13 @@
         <v>171</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>171</v>
+        <v>433</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E84" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F84" s="10">
         <v>3</v>
@@ -3425,13 +4191,13 @@
         <v>173</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>174</v>
       </c>
       <c r="E85" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F85" s="10">
         <v>3</v>
@@ -3448,13 +4214,13 @@
         <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E86" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F86" s="7">
         <v>3</v>
@@ -3471,13 +4237,13 @@
         <v>177</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>177</v>
+        <v>436</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>178</v>
       </c>
       <c r="E87" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F87" s="7">
         <v>3</v>
@@ -3494,13 +4260,13 @@
         <v>179</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E88" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F88" s="7">
         <v>3</v>
@@ -3517,13 +4283,13 @@
         <v>181</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>181</v>
+        <v>438</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>182</v>
       </c>
       <c r="E89" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F89" s="7">
         <v>3</v>
@@ -3540,13 +4306,13 @@
         <v>183</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E90" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F90" s="10">
         <v>3</v>
@@ -3563,13 +4329,13 @@
         <v>185</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E91" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F91" s="10">
         <v>3</v>
@@ -3586,13 +4352,13 @@
         <v>187</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E92" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F92" s="10">
         <v>3</v>
@@ -3609,13 +4375,13 @@
         <v>189</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>189</v>
+        <v>442</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E93" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F93" s="10">
         <v>3</v>
@@ -3632,13 +4398,13 @@
         <v>191</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>191</v>
+        <v>443</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>192</v>
       </c>
       <c r="E94" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F94" s="7">
         <v>4</v>
@@ -3655,13 +4421,13 @@
         <v>193</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>193</v>
+        <v>444</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>194</v>
       </c>
       <c r="E95" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F95" s="7">
         <v>4</v>
@@ -3678,13 +4444,13 @@
         <v>195</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>195</v>
+        <v>445</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>196</v>
       </c>
       <c r="E96" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F96" s="7">
         <v>4</v>
@@ -3701,13 +4467,13 @@
         <v>197</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>197</v>
+        <v>446</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E97" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F97" s="7">
         <v>4</v>
@@ -3724,13 +4490,13 @@
         <v>199</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E98" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F98" s="10">
         <v>4</v>
@@ -3747,13 +4513,13 @@
         <v>201</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>201</v>
+        <v>448</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E99" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F99" s="10">
         <v>4</v>
@@ -3770,13 +4536,13 @@
         <v>203</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>203</v>
+        <v>449</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E100" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F100" s="10">
         <v>4</v>
@@ -3793,13 +4559,13 @@
         <v>205</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E101" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F101" s="10">
         <v>4</v>
@@ -3816,13 +4582,13 @@
         <v>207</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>207</v>
+        <v>451</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>208</v>
       </c>
       <c r="E102" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F102" s="7">
         <v>4</v>
@@ -3839,13 +4605,13 @@
         <v>209</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>209</v>
+        <v>452</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>210</v>
       </c>
       <c r="E103" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F103" s="7">
         <v>4</v>
@@ -3862,13 +4628,13 @@
         <v>211</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>212</v>
       </c>
       <c r="E104" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F104" s="7">
         <v>4</v>
@@ -3885,13 +4651,13 @@
         <v>213</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>214</v>
       </c>
       <c r="E105" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F105" s="7">
         <v>4</v>
@@ -3908,13 +4674,13 @@
         <v>215</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>215</v>
+        <v>455</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E106" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F106" s="10">
         <v>4</v>
@@ -3931,13 +4697,13 @@
         <v>217</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>217</v>
+        <v>456</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E107" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F107" s="10">
         <v>4</v>
@@ -3954,13 +4720,13 @@
         <v>219</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E108" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F108" s="10">
         <v>4</v>
@@ -3977,13 +4743,13 @@
         <v>221</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E109" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F109" s="10">
         <v>4</v>
@@ -4000,13 +4766,13 @@
         <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>223</v>
+        <v>459</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E110" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F110" s="7">
         <v>2</v>
@@ -4023,13 +4789,13 @@
         <v>225</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>225</v>
+        <v>460</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>226</v>
       </c>
       <c r="E111" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F111" s="7">
         <v>2</v>
@@ -4046,13 +4812,13 @@
         <v>227</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>227</v>
+        <v>461</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>228</v>
       </c>
       <c r="E112" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F112" s="7">
         <v>2</v>
@@ -4069,13 +4835,13 @@
         <v>229</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>230</v>
       </c>
       <c r="E113" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F113" s="7">
         <v>2</v>
@@ -4092,13 +4858,13 @@
         <v>231</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>231</v>
+        <v>463</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>232</v>
       </c>
       <c r="E114" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F114" s="10">
         <v>2</v>
@@ -4115,13 +4881,13 @@
         <v>233</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>234</v>
       </c>
       <c r="E115" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F115" s="10">
         <v>2</v>
@@ -4138,13 +4904,13 @@
         <v>235</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>235</v>
+        <v>465</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E116" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F116" s="10">
         <v>2</v>
@@ -4161,13 +4927,13 @@
         <v>237</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E117" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F117" s="10">
         <v>2</v>
@@ -4184,13 +4950,13 @@
         <v>239</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>240</v>
       </c>
       <c r="E118" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F118" s="7">
         <v>2</v>
@@ -4207,13 +4973,13 @@
         <v>241</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>241</v>
+        <v>468</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>242</v>
       </c>
       <c r="E119" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F119" s="7">
         <v>2</v>
@@ -4230,13 +4996,13 @@
         <v>243</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E120" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F120" s="7">
         <v>2</v>
@@ -4253,13 +5019,13 @@
         <v>245</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>245</v>
+        <v>470</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E121" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F121" s="7">
         <v>2</v>
@@ -4276,13 +5042,13 @@
         <v>247</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>248</v>
       </c>
       <c r="E122" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F122" s="10">
         <v>2</v>
@@ -4299,13 +5065,13 @@
         <v>249</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>249</v>
+        <v>472</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E123" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F123" s="10">
         <v>2</v>
@@ -4322,13 +5088,13 @@
         <v>251</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>252</v>
       </c>
       <c r="E124" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F124" s="10">
         <v>2</v>
@@ -4345,13 +5111,13 @@
         <v>253</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>253</v>
+        <v>474</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>254</v>
       </c>
       <c r="E125" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F125" s="10">
         <v>2</v>
@@ -4368,13 +5134,13 @@
         <v>255</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>255</v>
+        <v>475</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>256</v>
       </c>
       <c r="E126" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F126" s="7">
         <v>4</v>
@@ -4391,13 +5157,13 @@
         <v>257</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>258</v>
       </c>
       <c r="E127" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F127" s="7">
         <v>4</v>
@@ -4414,13 +5180,13 @@
         <v>259</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>259</v>
+        <v>477</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>260</v>
       </c>
       <c r="E128" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F128" s="7">
         <v>4</v>
@@ -4437,13 +5203,13 @@
         <v>261</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>262</v>
       </c>
       <c r="E129" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F129" s="7">
         <v>4</v>
@@ -4460,13 +5226,13 @@
         <v>263</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E130" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F130" s="10">
         <v>4</v>
@@ -4483,13 +5249,13 @@
         <v>265</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>266</v>
       </c>
       <c r="E131" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F131" s="10">
         <v>4</v>
@@ -4506,13 +5272,13 @@
         <v>267</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>267</v>
+        <v>481</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>268</v>
       </c>
       <c r="E132" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F132" s="10">
         <v>4</v>
@@ -4529,13 +5295,13 @@
         <v>269</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>270</v>
       </c>
       <c r="E133" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F133" s="10">
         <v>4</v>
@@ -4552,13 +5318,13 @@
         <v>271</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>271</v>
+        <v>483</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>272</v>
       </c>
       <c r="E134" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F134" s="7">
         <v>4</v>
@@ -4575,13 +5341,13 @@
         <v>273</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>273</v>
+        <v>484</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>274</v>
       </c>
       <c r="E135" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F135" s="7">
         <v>4</v>
@@ -4598,13 +5364,13 @@
         <v>275</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>276</v>
       </c>
       <c r="E136" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F136" s="7">
         <v>4</v>
@@ -4621,13 +5387,13 @@
         <v>277</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>277</v>
+        <v>486</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>278</v>
       </c>
       <c r="E137" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F137" s="7">
         <v>4</v>
@@ -4644,13 +5410,13 @@
         <v>279</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>280</v>
       </c>
       <c r="E138" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F138" s="10">
         <v>4</v>
@@ -4667,13 +5433,13 @@
         <v>281</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>281</v>
+        <v>488</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>282</v>
       </c>
       <c r="E139" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F139" s="10">
         <v>4</v>
@@ -4690,13 +5456,13 @@
         <v>283</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>283</v>
+        <v>489</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>284</v>
       </c>
       <c r="E140" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F140" s="10">
         <v>4</v>
@@ -4713,13 +5479,13 @@
         <v>285</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>285</v>
+        <v>490</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>286</v>
       </c>
       <c r="E141" s="10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F141" s="10">
         <v>4</v>
@@ -4736,13 +5502,13 @@
         <v>287</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>287</v>
+        <v>491</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>288</v>
       </c>
       <c r="E142" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F142" s="7">
         <v>3</v>
@@ -4759,13 +5525,13 @@
         <v>289</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>289</v>
+        <v>492</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E143" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F143" s="7">
         <v>3</v>
@@ -4782,13 +5548,13 @@
         <v>291</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>291</v>
+        <v>493</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>292</v>
       </c>
       <c r="E144" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F144" s="7">
         <v>3</v>
@@ -4805,13 +5571,13 @@
         <v>293</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>293</v>
+        <v>494</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>294</v>
       </c>
       <c r="E145" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F145" s="7">
         <v>3</v>
@@ -4828,13 +5594,13 @@
         <v>295</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>296</v>
       </c>
       <c r="E146" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F146" s="10">
         <v>3</v>
@@ -4851,13 +5617,13 @@
         <v>297</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>297</v>
+        <v>496</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E147" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F147" s="10">
         <v>3</v>
@@ -4874,13 +5640,13 @@
         <v>299</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>299</v>
+        <v>497</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>300</v>
       </c>
       <c r="E148" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F148" s="10">
         <v>3</v>
@@ -4897,13 +5663,13 @@
         <v>301</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>301</v>
+        <v>498</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>302</v>
       </c>
       <c r="E149" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F149" s="10">
         <v>3</v>
@@ -4920,13 +5686,13 @@
         <v>303</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>303</v>
+        <v>499</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>304</v>
       </c>
       <c r="E150" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F150" s="7">
         <v>3</v>
@@ -4943,13 +5709,13 @@
         <v>305</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>306</v>
       </c>
       <c r="E151" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F151" s="7">
         <v>3</v>
@@ -4966,13 +5732,13 @@
         <v>307</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>307</v>
+        <v>501</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>308</v>
       </c>
       <c r="E152" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F152" s="7">
         <v>3</v>
@@ -4989,13 +5755,13 @@
         <v>309</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>309</v>
+        <v>502</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>310</v>
       </c>
       <c r="E153" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F153" s="7">
         <v>3</v>
@@ -5012,13 +5778,13 @@
         <v>311</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>312</v>
       </c>
       <c r="E154" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F154" s="10">
         <v>3</v>
@@ -5035,13 +5801,13 @@
         <v>313</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>314</v>
       </c>
       <c r="E155" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F155" s="10">
         <v>3</v>
@@ -5058,13 +5824,13 @@
         <v>315</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>315</v>
+        <v>505</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>316</v>
       </c>
       <c r="E156" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F156" s="10">
         <v>3</v>
@@ -5081,13 +5847,13 @@
         <v>317</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>318</v>
       </c>
       <c r="E157" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F157" s="10">
         <v>3</v>
@@ -5104,13 +5870,13 @@
         <v>319</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>319</v>
+        <v>507</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>320</v>
       </c>
       <c r="E158" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F158" s="7">
         <v>4</v>
@@ -5127,13 +5893,13 @@
         <v>321</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>321</v>
+        <v>508</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>322</v>
       </c>
       <c r="E159" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F159" s="7">
         <v>4</v>
@@ -5150,13 +5916,13 @@
         <v>323</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>323</v>
+        <v>509</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>324</v>
       </c>
       <c r="E160" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F160" s="7">
         <v>4</v>
@@ -5173,13 +5939,13 @@
         <v>325</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>325</v>
+        <v>510</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>326</v>
       </c>
       <c r="E161" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F161" s="7">
         <v>4</v>
@@ -5196,13 +5962,13 @@
         <v>327</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>327</v>
+        <v>511</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>328</v>
       </c>
       <c r="E162" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F162" s="10">
         <v>4</v>
@@ -5219,13 +5985,13 @@
         <v>329</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E163" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F163" s="10">
         <v>4</v>
@@ -5242,13 +6008,13 @@
         <v>331</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>331</v>
+        <v>513</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>332</v>
       </c>
       <c r="E164" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F164" s="10">
         <v>4</v>
@@ -5265,13 +6031,13 @@
         <v>333</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>333</v>
+        <v>514</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E165" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F165" s="10">
         <v>4</v>
@@ -5288,13 +6054,13 @@
         <v>335</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>336</v>
       </c>
       <c r="E166" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F166" s="7">
         <v>4</v>
@@ -5311,13 +6077,13 @@
         <v>337</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>337</v>
+        <v>516</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>338</v>
       </c>
       <c r="E167" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F167" s="7">
         <v>4</v>
@@ -5334,13 +6100,13 @@
         <v>339</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>339</v>
+        <v>517</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>340</v>
       </c>
       <c r="E168" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F168" s="7">
         <v>4</v>
@@ -5357,13 +6123,13 @@
         <v>341</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>341</v>
+        <v>518</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>342</v>
       </c>
       <c r="E169" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F169" s="7">
         <v>4</v>
@@ -5380,13 +6146,13 @@
         <v>343</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>343</v>
+        <v>519</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>344</v>
       </c>
       <c r="E170" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F170" s="10">
         <v>4</v>
@@ -5403,13 +6169,13 @@
         <v>345</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>345</v>
+        <v>520</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>346</v>
       </c>
       <c r="E171" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F171" s="10">
         <v>4</v>
@@ -5426,13 +6192,13 @@
         <v>347</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>348</v>
       </c>
       <c r="E172" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F172" s="10">
         <v>4</v>
@@ -5449,23 +6215,474 @@
         <v>349</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>349</v>
+        <v>522</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>350</v>
       </c>
       <c r="E173" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F173" s="10">
         <v>4</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="23">
         <v>44</v>
       </c>
     </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="E174" s="10">
+        <v>6</v>
+      </c>
+      <c r="F174" s="24">
+        <v>1</v>
+      </c>
+      <c r="G174" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E175" s="10">
+        <v>6</v>
+      </c>
+      <c r="F175" s="24">
+        <v>1</v>
+      </c>
+      <c r="G175" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="E176" s="10">
+        <v>6</v>
+      </c>
+      <c r="F176" s="24">
+        <v>1</v>
+      </c>
+      <c r="G176" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E177" s="10">
+        <v>6</v>
+      </c>
+      <c r="F177" s="24">
+        <v>2</v>
+      </c>
+      <c r="G177" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="E178" s="10">
+        <v>6</v>
+      </c>
+      <c r="F178" s="24">
+        <v>2</v>
+      </c>
+      <c r="G178" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="E179" s="10">
+        <v>6</v>
+      </c>
+      <c r="F179" s="24">
+        <v>2</v>
+      </c>
+      <c r="G179" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E180" s="10">
+        <v>6</v>
+      </c>
+      <c r="F180" s="24">
+        <v>3</v>
+      </c>
+      <c r="G180" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E181" s="10">
+        <v>6</v>
+      </c>
+      <c r="F181" s="24">
+        <v>3</v>
+      </c>
+      <c r="G181" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="E182" s="10">
+        <v>6</v>
+      </c>
+      <c r="F182" s="24">
+        <v>3</v>
+      </c>
+      <c r="G182" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E183" s="10">
+        <v>6</v>
+      </c>
+      <c r="F183" s="24">
+        <v>4</v>
+      </c>
+      <c r="G183" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E184" s="10">
+        <v>6</v>
+      </c>
+      <c r="F184" s="24">
+        <v>4</v>
+      </c>
+      <c r="G184" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E185" s="10">
+        <v>6</v>
+      </c>
+      <c r="F185" s="24">
+        <v>4</v>
+      </c>
+      <c r="G185" s="25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372F5370-590B-4CC1-9676-E58162ECD537}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1103204038</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1103202098</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" s="17">
+        <f>C2+1111111111</f>
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1103200025</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:C13" si="0">C3+1111111111</f>
+        <v>2222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1103204086</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="0"/>
+        <v>3333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>1103201246</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>4444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>1103204104</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>5555555555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1103204012</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>6666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>1103200110</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
+        <v>7777777777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>1103201244</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="0"/>
+        <v>8888888888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>1103204040</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>1103204166</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12" s="17">
+        <f>C11+1111111111</f>
+        <v>11111111110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>1103202211</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>12222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>